--- a/static/data/python/sample exams/Cooper/Cooper_exam_sample_020.xlsx
+++ b/static/data/python/sample exams/Cooper/Cooper_exam_sample_020.xlsx
@@ -31,339 +31,339 @@
     <t>System</t>
   </si>
   <si>
-    <t>(295023AA2.03) Ability to determine and/or interpret the following as they apply to (APE 23) REFUELING ACCIDENTS: (CFR: 41.10 / 43.5 / 45.13) Airborne contamination levels</t>
-  </si>
-  <si>
-    <t>(295003AA1.04) Ability to operate and/or monitor the following as they apply to (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER: (CFR: 41.7 / 45.6) DC electrical distribution system</t>
-  </si>
-  <si>
-    <t>(295026) (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE (G2.1.28) CONDUCT OF OPERATIONS Knowledge of the purpose and function of major system components and controls (CFR: 41.7)</t>
-  </si>
-  <si>
-    <t>(295018AK2.02) Knowledge of the relationship between the (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW) and the following systems or components: (CFR: 41.7 / 45.8) Plant operations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(295016AA1.14) Ability to operate and/or monitor the following as they apply to (APE 16) CONTROL ROOM ABANDONMENT: (CFR: 41.7 / 45.6) </t>
-  </si>
-  <si>
-    <t>(295024EK3.06) Knowledge of the reasons for the following responses or actions as they apply to (EPE 1) HIGH DRYWELL PRESSURE: (CFR: 41.5 / 45.6) Reactor SCRAM</t>
-  </si>
-  <si>
-    <t>(295021AA2.06) Ability to determine and/or interpret the following as they apply to (APE 21) LOSS OF SHUTDOWN COOLING: (CFR: 41.10 / 43.5 / 45.13) Reactor pressure</t>
-  </si>
-  <si>
-    <t>(295004AA1.01) Ability to operate and/or monitor the following as they apply to (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER: (CFR: 41.7 / 45.6) DC electrical distribution</t>
-  </si>
-  <si>
-    <t>(295027) (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY) (G2.4.19) EMERGENCY PROCEDURES / PLAN Knowledge of emergency and abnormal operating procedures layout, symbols, and icons (CFR: 41.10 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295025EK2.04) Knowledge of the relationship between the (EPE 2) HIGH REACTOR PRESSURE and the following systems or components: (CFR: 41.7 / 45.8) ARI/RPT/ATWS</t>
-  </si>
-  <si>
-    <t>(295030EK1.03) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 7) LOW SUPPRESSION POOL WATER LEVEL: (CFR: 41.8 to 41.10) Heat capacity</t>
-  </si>
-  <si>
-    <t>(700000AK3.01) Knowledge of the reasons for the following responses or actions as they apply to (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES: (CFR: 41.4 / 41.5 / 41.7 / 41.10 / 45.8) Reactor and turbine trip criteria</t>
-  </si>
-  <si>
-    <t>(295001AA2.03) Ability to determine and/or interpret the following as they apply to (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION: (CFR: 41.10 / 43.5 / 45.13) Core flow</t>
-  </si>
-  <si>
-    <t>(295005AA1.07) Ability to operate and/or monitor the following as they apply to (APE 5) MAIN TURBINE GENERATOR TRIP: (CFR: 41.7 / 45.6) AC electrical distribution</t>
-  </si>
-  <si>
-    <t>(295006) (APE 6) SCRAM (G2.4.37) EMERGENCY PROCEDURES / PLAN Knowledge of the lines of authority during implementation of the emergency plan implementing procedures (CFR: 41.10 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295031EK2.16) Knowledge of the relationship between the (EPE 8) REACTOR LOW WATER LEVEL and the following systems or components: (CFR: 41.7 / 45.8) Reactor water level control system</t>
-  </si>
-  <si>
-    <t>(295038EK1.04) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE: (CFR: 41.8 to 41.10) Elevated vs. ground level release</t>
-  </si>
-  <si>
-    <t>(600000AK3.04) Knowledge of the reasons for the following responses or actions as they apply to (APE 24) PLANT FIRE ON SITE: (CFR: 41.5 / 41.10 / 45.6 / 45.13) Actions contained in the fire response procedures for a plant fire on site</t>
+    <t>(295018AK3.05) Knowledge of the reasons for the following responses or actions as they apply to (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW): (CFR: 41.5 / 45.6) Placing the standby heat exchanger in service</t>
+  </si>
+  <si>
+    <t>(295023AA1.06) Ability to operate and/or monitor the following as they apply to (APE 23) REFUELING ACCIDENTS: (CFR: 41.7 / 45.6) Nuclear instrumentation</t>
+  </si>
+  <si>
+    <t>(295006) (APE 6) SCRAM (G2.1.14) CONDUCT OF OPERATIONS Knowledge of criteria or conditions that require plantwide announcements, such as pump starts, reactor trips, and mode changes (CFR: 41.10 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(295003AA2.02) Ability to determine and/or interpret the following as they apply to (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER: (CFR: 41.10 / 43.5 / 45.13) Reactor power, pressure, and level</t>
+  </si>
+  <si>
+    <t>(700000AK2.09) Knowledge of the relationship between the (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES and the following systems or components: (CFR: 41.4 / 41.5 / 41.7 / 41.10 / 45.8) AC electrical distribution system</t>
+  </si>
+  <si>
+    <t>(295016AK2.07) Knowledge of the relationship between the (APE 16) CONTROL ROOM ABANDONMENT and the following systems or components: (CFR: 41.7 / 45.8) RCIC</t>
+  </si>
+  <si>
+    <t>(295019AK3.04) Knowledge of the reasons for the following responses or actions as they apply to (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR: (CFR: 41.5 / 45.6) Dryer/filter realignment</t>
+  </si>
+  <si>
+    <t>(295031EA1.09) Ability to operate and/or monitor the following as they apply to (EPE 8) REACTOR LOW WATER LEVEL: (CFR: 41.7 / 45.6) Isolation condenser (Nine Mile Point 1, Dresden)</t>
+  </si>
+  <si>
+    <t>(295030) (EPE 7) LOW SUPPRESSION POOL WATER LEVEL (G2.2.17) EQUIPMENT CONTROL Knowledge of the process for managing maintenance activities during power operations, such as risk assessments, work prioritization, and coordination with the transmission system operator (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295021AA2.03) Ability to determine and/or interpret the following as they apply to (APE 21) LOSS OF SHUTDOWN COOLING: (CFR: 41.10 / 43.5 / 45.13) Reactor water level</t>
+  </si>
+  <si>
+    <t>(295027EK2.05) Knowledge of the relationship between the (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY) and the following systems or components: (CFR: 41.7 / 45.8) Safety relief valves</t>
+  </si>
+  <si>
+    <t>(295001AK1.02) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION: (CFR: 41.8 to 41.10) Power/flow distribution</t>
+  </si>
+  <si>
+    <t>(295004AK3.01) Knowledge of the reasons for the following responses or actions as they apply to (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER: (CFR: 41.5 / 45.6) Load shedding</t>
+  </si>
+  <si>
+    <t>(295025EA1.09) Ability to operate and/or monitor the following as they apply to (EPE 2) HIGH REACTOR PRESSURE: (CFR: 41.7 / 45.6) RPS</t>
+  </si>
+  <si>
+    <t>(295038) (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE (G2.1.43) CONDUCT OF OPERATIONS Ability to use an online power distribution monitoring system and/or procedures to determine the effects on reactivity of plant changes, such as RCS temperature, secondary plant, or fuel depletion (CFR: 41.10 / 43.6 / 45.6)</t>
+  </si>
+  <si>
+    <t>(295026EA2.03) Ability to determine and/or interpret the following as they apply to (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE: (CFR: 41.10 / 43.5 / 45.13) Reactor pressure</t>
+  </si>
+  <si>
+    <t>(295024EK2.01) Knowledge of the relationship between the (EPE 1) HIGH DRYWELL PRESSURE and the following systems or components: (CFR: 41.7 / 45.8) HPCI (FWCI)</t>
+  </si>
+  <si>
+    <t>(600000AK1.02) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 24) PLANT FIRE ON SITE: (CFR: 41.8 / 41.10 / 45.3) Firefighting methods for each type of fire</t>
+  </si>
+  <si>
+    <t>(295037EK3.02) Knowledge of the reasons for the following responses or actions as they apply to (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN: (CFR: 41.5 / 41.7 / 45.6) Boron injection</t>
+  </si>
+  <si>
+    <t>(295005AA1.05) Ability to operate and/or monitor the following as they apply to (APE 5) MAIN TURBINE GENERATOR TRIP: (CFR: 41.7 / 45.6) Reactor/turbine pressure regulating system</t>
+  </si>
+  <si>
+    <t>(295007AA2.04) Ability to determine and/or interpret the following as they apply to (APE 7) HIGH REACTOR PRESSURE: (CFR: 41.10 / 43.5 / 45.13) Bypass valve capacity</t>
+  </si>
+  <si>
+    <t>(295022AK2.02) Knowledge of the relationship between the (APE 22) LOSS OF CONTROL ROD DRIVE PUMPS and the following systems or components: (CFR: 41.7 / 45.8) CRD mechanism</t>
+  </si>
+  <si>
+    <t>(295002AK1.04) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 2) LOSS OF MAIN CONDENSER VACUUM: (CFR: 41.8 to 41.10) Offgas flow changes</t>
+  </si>
+  <si>
+    <t>(295034EK3.03) Knowledge of the reasons for the following responses or actions as they apply to (EPE 11) SECONDARY CONTAINMENT VENTILATION HIGH RADIATION: (CFR: 41.5 / 45.6) Personnel evacuation</t>
+  </si>
+  <si>
+    <t>(295010AA1.09) Ability to operate and/or monitor the following as they apply to (APE 10) HIGH DRYWELL PRESSURE: (CFR: 41.7 / 45.6) Plant ventilation systems</t>
+  </si>
+  <si>
+    <t>(295017) (APE 17) ABNORMAL OFFSITE RELEASE RATE (G2.1.21) CONDUCT OF OPERATIONS Ability to verify that a copy of a controlled procedure is the proper revision (CFR: 41.10 / 45.10 / 45.13)</t>
+  </si>
+  <si>
+    <t>(215005A4.05) Ability to manually operate and/or monitor the (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR in the control room: (CFR: 41.7 / 45.5 to 45.8) Trip bypasses</t>
+  </si>
+  <si>
+    <t>(259002A2.02) Ability to (a) predict the impacts of the following on the (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loss of any number of reactor feedwater flow inputs</t>
+  </si>
+  <si>
+    <t>(223002K3.03) Knowledge of the effect that a loss or malfunction of the (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Offsite radioactive release rates</t>
+  </si>
+  <si>
+    <t>(300000A3.04) Ability to monitor automatic operation of the (SF8 IA) INSTRUMENT AIR SYSTEM including: (CFR: 41.8 / 45.7) Automatic isolation</t>
+  </si>
+  <si>
+    <t>(212000K6.11) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF7 RPS) REACTOR PROTECTION SYSTEM : (CFR: 41.7 / 45.7) Primary containment and auxiliaries</t>
+  </si>
+  <si>
+    <t>(400000K2.02) (SF8 CCS) COMPONENT COOLING WATER SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) CCW valves</t>
+  </si>
+  <si>
+    <t>(262001) (SF6 AC) AC ELECTRICAL DISTRIBUTION (G2.4.37) EMERGENCY PROCEDURES / PLAN Knowledge of the lines of authority during implementation of the emergency plan implementing procedures (CFR: 41.10 / 45.13)</t>
+  </si>
+  <si>
+    <t>(215003K4.08) Knowledge of (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) SRMS-IRM overlap</t>
+  </si>
+  <si>
+    <t>(264000A1.06) Ability to predict and/or monitor changes in parameters associated with operation of the (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) including: (CFR: 41.5 / 45.5) Emergency generator room temperature</t>
+  </si>
+  <si>
+    <t>(510000K5.02) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF4 SWS*) SERVICE WATER SYSTEM: (CFR: 41.4 / 41.7 / 45.5) Radiation alarm response</t>
+  </si>
+  <si>
+    <t>(209002K1.04) Knowledge of the physical connections and/or cause and effect relationships between the (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Emergency generators</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(209001A4.02) Ability to manually operate and/or monitor the (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) Valves </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(215004A2.05) Ability to (a) predict the impacts of the following on the (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Faulty or erratic operation of detectors/system </t>
+  </si>
+  <si>
+    <t>(239002K3.01) Knowledge of the effect that a loss or malfunction of the (SF3 SRV) SAFETY RELIEF VALVES will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Reactor pressure control</t>
+  </si>
+  <si>
+    <t>(263000A3.02) Ability to monitor automatic operation of the (SF6 DC) DC ELECTRICAL DISTRIBUTION including: (CFR: 41.7 / 45.7) Breaker trips</t>
+  </si>
+  <si>
+    <t>(261000K6.02) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM : (CFR: 41.7 / 45.7) DC electrical distribution</t>
+  </si>
+  <si>
+    <t>(262002K2.02) (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC) Knowledge of electrical power supplies to the following: (CFR: 41.7) Motor generator</t>
+  </si>
+  <si>
+    <t>(205000) (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) (291003K1.10) CONTROLLERS AND POSITIONERS (CFR: 41.7) Function and characteristics of air-operated valves, including failure modes</t>
+  </si>
+  <si>
+    <t>(218000K4.03) Knowledge of (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) ADS logic control</t>
+  </si>
+  <si>
+    <t>(211000A1.08) Ability to predict and/or monitor changes in parameters associated with operation of the (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM including: (CFR: 41.5 / 45.5) RWCU system lineup</t>
+  </si>
+  <si>
+    <t>(217000K5.02) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) : (CFR: 41.5 / 45.3) Flow control</t>
+  </si>
+  <si>
+    <t>(203000K1.02) Knowledge of the physical connections and/or cause and effect relationships between the (SF2, SF4 RHR/LPCI) RHR/LPCI: INJECTION MODE (BWR 3, 4, 5, 6) and the following systems: (CFR: 41.2 to 41.9 / 43.5 / 45.7 / 45.8) Primary containment</t>
+  </si>
+  <si>
+    <t>(215005A4.07) Ability to manually operate and/or monitor the (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR in the control room: (CFR: 41.7 / 45.5 to 45.8) OPRM back panel switches, and indicating lights</t>
+  </si>
+  <si>
+    <t>(259002A2.09) Ability to (a) predict the impacts of the following on the (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) FWCI system failure alarm</t>
+  </si>
+  <si>
+    <t>(223002K3.02) Knowledge of the effect that a loss or malfunction of the (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Fuel cladding temperature</t>
+  </si>
+  <si>
+    <t>(300000A3.03) Ability to monitor automatic operation of the (SF8 IA) INSTRUMENT AIR SYSTEM including: (CFR: 41.8 / 45.7) Compressor automatic starts/trips</t>
+  </si>
+  <si>
+    <t>(226001K5.08) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF5 RHR CSS) RHR/LPCI: CONTAINMENT SPRAY MODE SYSTEM MODE : (CFR: 41.5 / 45.3) Containment spray initiation pressure limit</t>
+  </si>
+  <si>
+    <t>(290002K1.01) Knowledge of the physical connections and/or cause and effect relationships between the (SF4 RVI) REACTOR VESSEL INTERNALS and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Main steam system</t>
+  </si>
+  <si>
+    <t>(219000A4.03) Ability to manually operate and/or monitor the (SF5 RHR SPC) RHR/LPCI: TORUS/SUPPRESSION POOL COOLING MODE in the control room: (CFR: 41.7 / 45.5 to 45.8) Keep fill system</t>
+  </si>
+  <si>
+    <t>(201005A2.15) Ability to (a) predict the impacts of the following on the (SF1, SF7 RCIS) ROD CONTROL AND INFORMATION SYSTEM (BWR 6) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6 / 45.8) Fuel handling system malfunction</t>
+  </si>
+  <si>
+    <t>(239001K3.12) Knowledge of the effect that a loss or malfunction of the (SF3, SF4 MRSS) MAIN AND REHEAT STEAM SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Isolation condenser (Nine Mile Point 1, Dresden)</t>
+  </si>
+  <si>
+    <t>(201003A2.07) Ability to (a) predict the impacts of the following on the (SF1 CRDM) CONTROL ROD AND DRIVE MECHANISM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.1-6 / 45.1-6) Abnormal CRD drive water flow</t>
+  </si>
+  <si>
+    <t>(223001K6.03) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF5 PCS) PRIMARY CONTAINMENT SYSTEM AND AUXILIARIES: (CFR: 41.7 / 45.7) Suppression pool makeup</t>
+  </si>
+  <si>
+    <t>(234000K6.04) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF8 FH) FUEL HANDLING: (CFR: 41.7 / 45.7) Refueling platform air</t>
+  </si>
+  <si>
+    <t>(202001) (SF1, SF4 RS) RECIRCULATION SYSTEM (G2.1.15) CONDUCT OF OPERATIONS Knowledge of administrative requirements for temporary management direction, such as standing orders, night orders, or operations memoranda (CFR: 41.10 / 45.12)</t>
+  </si>
+  <si>
+    <t>(256000K4.01) Knowledge of (SF2 CDS) CONDENSATE SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Condensate or booster pump automatic start</t>
+  </si>
+  <si>
+    <t>(239003A1.04) Ability to predict and/or monitor changes in parameters associated with operation of the (SF9 MSVLCS) MAIN STEAM ISOLATION VALVE LEAKAGE CONTROL SYSTEM (BWR 4, 5, 6) including: (CFR: 41.5 / 45.5) Status indicating lights and alarms</t>
+  </si>
+  <si>
+    <t>(G2.1.5) CONDUCT OF OPERATIONS Ability to use procedures related to shift staffing, such as minimum crew complement or overtime limitations (reference potential) (CFR: 41.10 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(G2.1.18) CONDUCT OF OPERATIONS Ability to make accurate, clear, and concise logs, records, status boards, and reports (CFR: 41.10 / 45.12 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.2.22) EQUIPMENT CONTROL Knowledge of limiting conditions for operation and safety limits (CFR: 41.5 / 43.2 / 45.2)</t>
+  </si>
+  <si>
+    <t>(G2.2.18) EQUIPMENT CONTROL Knowledge of the process for managing maintenance activities during shutdown operations, such as risk assessments and work prioritization (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.3.5) RADIATION CONTROL Ability to use radiation monitoring systems, such as fixed radiation monitors and alarms or personnel monitoring equipment (CFR: 41.11 / 41.12 / 43.4 / 45.9)</t>
+  </si>
+  <si>
+    <t>(G2.4.51) EMERGENCY PROCEDURES / PLAN Knowledge of emergency operating procedure exit conditions (e.g., emergency condition no longer exists or severe accident guideline entry is required) (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(292005K1.11) CONTROL RODS (CFR: 41.1) Define deep rods and shallow rods</t>
+  </si>
+  <si>
+    <t>(292001K1.04) NEUTRONS (CFR: 41.1) Describe neutron moderation</t>
+  </si>
+  <si>
+    <t>(292002K1.11) NEUTRON LIFE CYCLE (CFR: 41.1) Define reactivity</t>
+  </si>
+  <si>
+    <t>(293008K1.34) THERMAL HYDRAULICS (CFR: 41.14) (NATURAL CIRCULATION) Explain the causes of natural circulation in BWRs</t>
+  </si>
+  <si>
+    <t>(293007K1.13) HEAT TRANSFER (CFR: 41.14) (CORE THERMAL POWER) Calculate core thermal power using a simplified heat</t>
+  </si>
+  <si>
+    <t>(293005K1.06) THERMODYNAMIC CYCLES (CFR: 41.14) Describe how changes in system parameters affect thermodynamic efficiency</t>
+  </si>
+  <si>
+    <t>(295018AA2.02) Ability to determine and/or interpret the following as they apply to (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW): (CFR: 41.10 / 43.5 / 45.13) Cooling water temperature</t>
+  </si>
+  <si>
+    <t>(295023) (APE 23) REFUELING ACCIDENTS (G2.4.32) EMERGENCY PROCEDURES / PLAN Knowledge of operator response to loss of annunciators (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295006AA2.06) Ability to determine and/or interpret the following as they apply to (APE 6) SCRAM: (CFR: 41.10 / 43.5 / 45.13) Cause of reactor SCRAM</t>
+  </si>
+  <si>
+    <t>(295003) (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER (G2.4.26) EMERGENCY PROCEDURES / PLAN Knowledge of facility protection requirements, including fire brigade and portable firefighting equipment usage (CFR: 41.10 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(700000AA2.07) Ability to determine and/or interpret the following as they apply to (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES: (CFR: 41.5 / 43.5 / 45.5 / 45.7 / 45.8) Operations status of safety-related (vital) buses</t>
+  </si>
+  <si>
+    <t>(295016) (APE 16) CONTROL ROOM ABANDONMENT (G2.2.1) EQUIPMENT CONTROL Ability to perform pre-startup procedures for the facility, including operating those controls associated with plant equipment that could affect reactivity (CFR: 41.5 / 41.10 / 43.5 / 43.6 / 45.1)</t>
   </si>
   <si>
     <t xml:space="preserve">(295019AA2.01) Ability to determine and/or interpret the following as they apply to (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR: (CFR: 41.10 / 43.5 / 45.13) Instrument air pressure </t>
   </si>
   <si>
-    <t>(295037EA1.02) Ability to operate and/or monitor the following as they apply to (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN: (CFR: 41.7 / 45.5 to 45.8) Redundant reactivity control system</t>
-  </si>
-  <si>
-    <t>(295011AK2.01) Knowledge of the relationship between the (APE 11) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY) and the following systems or components: (CFR: 41.7 / 45.8) Containment ventilation/cooling</t>
-  </si>
-  <si>
-    <t>(295007AK1.02) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 7) HIGH REACTOR PRESSURE: (CFR: 41.5 / 41.10) Decay heat generation</t>
-  </si>
-  <si>
-    <t>(295013AK3.02) Knowledge of the reasons for the following responses or actions as they apply to (APE 13) HIGH SUPPRESSION POOL TEMPERATURE.: (CFR: 41.5 / 45.6) Limiting heat additions</t>
-  </si>
-  <si>
-    <t>(295022AA2.01) Ability to determine and/or interpret the following as they apply to (APE 22) LOSS OF CONTROL ROD DRIVE PUMPS: (CFR: 41.10 / 43.5 / 45.13) Accumulator pressure</t>
-  </si>
-  <si>
-    <t>(295008AA1.02) Ability to operate and/or monitor the following as they apply to (APE 8) HIGH REACTOR WATER LEVEL: (CFR: 41.7 / 45.6) Reactor water cleanup (ability to drain)</t>
-  </si>
-  <si>
-    <t>(295009) (APE 9) LOW REACTOR WATER LEVEL (G2.1.36) CONDUCT OF OPERATIONS Knowledge of procedures and limitations involved in core alterations (CFR: 41.10 / 43.6 / 45.7)</t>
-  </si>
-  <si>
-    <t>(212000K5.02) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF7 RPS) REACTOR PROTECTION SYSTEM : (CFR: 41.5 / 45.3) Logic channel arrangements</t>
-  </si>
-  <si>
-    <t>(223002K4.05) Knowledge of (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF design features and/or interlocks that provide for the following: (CFR: 41.7) Single failures will not impair the function ability of the system</t>
-  </si>
-  <si>
-    <t>(209002A1.09) Ability to predict and/or monitor changes in parameters associated with operation of the (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM including: (CFR: 41.5 / 45.5) Condensate storage tank level</t>
-  </si>
-  <si>
-    <t>(259002) (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM (G2.2.44) EQUIPMENT CONTROL Ability to interpret control room indications to verify the status and operation of a system and understand how operator actions and directives affect plant and system conditions (CFR: 41.5 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(205000A3.01) Ability to monitor automatic operation of the (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) including: (CFR: 41.7 / 45.7) Valve operation</t>
-  </si>
-  <si>
-    <t>(262001K2.02) (SF6 AC) AC ELECTRICAL DISTRIBUTION Knowledge of electrical power supplies to the following: (CFR: 41.7) AC breaker control power</t>
-  </si>
-  <si>
-    <t>(203000K6.15) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF2, SF4 RHR/LPCI) RHR/LPCI: INJECTION MODE (BWR 3, 4, 5, 6): (CFR: 41.7 / 45.7) Low reactor water level</t>
-  </si>
-  <si>
-    <t>(261000K1.06) Knowledge of the physical connections and/or cause and effect relationships between the (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM and the following systems: (CFR: 41.4 to 41.9 / 45.7 / 45.8) HIGH-PRESSURE COOLANT INJECTION SYSTEM (BWR 2, 3, 4)</t>
-  </si>
-  <si>
-    <t>(209001K3.02) Knowledge of the effect that a loss or malfunction of the (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) ADS logic</t>
-  </si>
-  <si>
-    <t>(215003A4.06) Ability to manually operate and/or monitor the (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) Detector drives</t>
-  </si>
-  <si>
-    <t>(217000A2.16) Ability to (a) predict the impacts of the following on the (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Low condensate storage tank level</t>
-  </si>
-  <si>
-    <t>(218000K5.05) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM: (CFR: 41.5 / 45.3) Suppression pool level</t>
-  </si>
-  <si>
-    <t>(262002K4.01) Knowledge of (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC) design features and/or interlocks that provide for the following: (CFR: 41.7) Transfer of power supplies</t>
-  </si>
-  <si>
-    <t>(211000A1.03) Ability to predict and/or monitor changes in parameters associated with operation of the (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM including: (CFR: 41.5 / 45.5) Pump discharge pressure</t>
-  </si>
-  <si>
-    <t>(264000) (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) (291002K1.24) SENSORS AND DETECTORS (CFR: 41.7) (RADIATION DETECTION) Use of portable and personal radiation monitoring instruments</t>
-  </si>
-  <si>
-    <t>(300000A3.03) Ability to monitor automatic operation of the (SF8 IA) INSTRUMENT AIR SYSTEM including: (CFR: 41.8 / 45.7) Compressor automatic starts/trips</t>
-  </si>
-  <si>
-    <t>(215004K2.03) (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Detector drive module control</t>
-  </si>
-  <si>
-    <t>(400000K6.13) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF8 CCS) COMPONENT COOLING WATER SYSTEM : (CFR: 41.7 / 45.7) Fuel pool cooling and cleanup system</t>
-  </si>
-  <si>
-    <t>(263000K1.03) Knowledge of the physical connections and/or cause and effect relationships between the (SF6 DC) DC ELECTRICAL DISTRIBUTION and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Plant ventilation systems</t>
-  </si>
-  <si>
-    <t>(239002K3.01) Knowledge of the effect that a loss or malfunction of the (SF3 SRV) SAFETY RELIEF VALVES will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Reactor pressure control</t>
-  </si>
-  <si>
-    <t>(510000A4.01) Ability to manually operate and/or monitor the (SF4 SWS*) SERVICE WATER SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) Pump operations</t>
-  </si>
-  <si>
-    <t>(215005A2.05) Ability to (a) predict the impacts of the following on the (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loss of recirculation flow signal</t>
-  </si>
-  <si>
-    <t>(212000K6.12) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF7 RPS) REACTOR PROTECTION SYSTEM : (CFR: 41.7 / 45.7) Main steam system</t>
-  </si>
-  <si>
-    <t>(223002K4.07) Knowledge of (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF design features and/or interlocks that provide for the following: (CFR: 41.7) Physical separation of system components (to prevent localized environmental factors, electrical faults, and physical events from impairing system response)</t>
-  </si>
-  <si>
-    <t>(209002A1.07) Ability to predict and/or monitor changes in parameters associated with operation of the (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM including: (CFR: 41.5 / 45.5) Diesel loading</t>
-  </si>
-  <si>
-    <t>(259002) (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM (G2.1.40) CONDUCT OF OPERATIONS Knowledge of refueling administrative requirements (CFR: 41.10 / 43.5 / 43.6 / 45.13)</t>
-  </si>
-  <si>
-    <t>(259001A4.01) Ability to manually operate and/or monitor the (SF2 FWS) FEEDWATER SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) System flow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(290001A2.08) Ability to (a) predict the impacts of the following on the (SF5 SC) SECONDARY CONTAINMENT and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loss of secondary containment integrity </t>
-  </si>
-  <si>
-    <t>(219000K5.04) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF5 RHR SPC) RHR/LPCI: TORUS/SUPPRESSION POOL COOLING MODE: (CFR: 41.5 / 45.3) Heat exchanger operation</t>
-  </si>
-  <si>
-    <t>(216000K4.16) Knowledge of (SF7 NBI) NUCLEAR BOILER INSTRUMENTATION design features and/or interlocks that provide for the following: (CFR: 41.7) RPV level instrumentation design calibration conditions</t>
-  </si>
-  <si>
-    <t>(204000A1.02) Ability to predict and/or monitor changes in parameters associated with operation of the (SF2 RWCU) REACTOR WATER CLEANUP SYSTEM including: (CFR: 41.5 / 45.5) Component cooling water temperature</t>
-  </si>
-  <si>
-    <t>(202001) (SF1, SF4 RS) RECIRCULATION SYSTEM (291002K1.10) SENSORS AND DETECTORS (CFR: 41.7) (PRESSURE) Theory and operation of pressure detectors (bourdon tubes, diaphragms, bellows, forced balance, variable capacitance, and D/P cell)</t>
-  </si>
-  <si>
-    <t>(215001A3.03) Ability to monitor automatic operation of the (SF7 TIP) TRAVERSING IN CORE PROBE including: (CFR: 41.7 / 45.7) Valve operation (BWR 2, 3, 4, 5)</t>
-  </si>
-  <si>
-    <t>(223001K2.11) (SF5 PCS) PRIMARY CONTAINMENT SYSTEM AND AUXILIARIES Knowledge of electrical power supplies to the following: (CFR: 41.7) Suppression pool cleanup pump</t>
-  </si>
-  <si>
-    <t>(239001K6.05) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF3, SF4 MRSS) MAIN AND REHEAT STEAM SYSTEM: (CFR: 41.7 / 45.7) Steam line leak</t>
-  </si>
-  <si>
-    <t>(245000K1.14) Knowledge of the physical connections and/or cause and effect relationships between the (SF4 MTGEN) MAIN TURBINE GENERATOR AND AUXILIARY SYSTEMS and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) EHC system</t>
-  </si>
-  <si>
-    <t>(201005K3.05) Knowledge of the effect that a loss or malfunction of the (SF1, SF7 RCIS) ROD CONTROL AND INFORMATION SYSTEM (BWR 6) will have on the following systems or system parameters: (CFR: 41.6 / 41.7 / 45.4 to 45.6) Control rod drive mechanism system</t>
-  </si>
-  <si>
-    <t>(G2.1.44) CONDUCT OF OPERATIONS Knowledge of RO duties in the control room during fuel handling, such as responding to alarms from the fuel handling area, communication with fuel handling personnel, operating systems from the control room in support of fueling operations, or supporting instrumentation (CFR: 41.10 / 43.7 / 45.12)</t>
-  </si>
-  <si>
-    <t>(G2.1.17) CONDUCT OF OPERATIONS Ability to make accurate, clear, and concise verbal reports (CFR: 41.10 / 45.12 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.2.7) EQUIPMENT CONTROL Knowledge of the process for conducting infrequently performed tests or evolutions (CFR: 41.10 / 43.3 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.2.14) EQUIPMENT CONTROL Knowledge of the process for controlling equipment configuration or status (CFR: 41.10 / 43.3 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.3.12) RADIATION CONTROL Knowledge of radiological safety principles and procedures pertaining to licensed operator duties, such as response to radiation monitor alarms, containment entry requirements, fuel handling responsibilities, access to locked high-radiation areas, or alignment of filters (CFR: 41.12 / 43.4 / 45.9 / 45.10)</t>
-  </si>
-  <si>
-    <t>(G2.4.22) EMERGENCY PROCEDURES / PLAN Knowledge of the bases for prioritizing safety functions during abnormal/emergency operations (CFR: 41.7 / 41.10 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(292007K1.03) FUEL DEPLETION AND BURNABLE POISONS (CFR: 41.1) Given a curve of K-effective versus core age, state the reasons for maximum, minimum, and inflection points</t>
-  </si>
-  <si>
-    <t>(292005K1.01) CONTROL RODS (CFR: 41.1) Relate notch and rod position</t>
-  </si>
-  <si>
-    <t>(292001K1.02) NEUTRONS (CFR: 41.1) Define prompt and delayed neutrons</t>
-  </si>
-  <si>
-    <t>(293006K1.14) FLUID STATICS AND DYNAMICS (CFR: 41.14) (PUMPS AND PUMP CHARACTERISTICS) Explain the results of putting centrifugal pumps in parallel or series combinations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(293009K1.25) CORE THERMAL LIMITS (CFR: 41.14) (MCPR) Describe the effects of local power distribution </t>
-  </si>
-  <si>
-    <t>(293004K1.17) THERMODYNAMIC PROCESS (CFR: 41.14) (THROTTLING AND THE THROTTLING PROCESS) Determine the exit conditions for a throttling process based on the use of steam or water</t>
-  </si>
-  <si>
-    <t>(295023AA2.02) Ability to determine and/or interpret the following as they apply to (APE 23) REFUELING ACCIDENTS: (CFR: 41.10 / 43.5 / 45.13) Fuel pool level</t>
-  </si>
-  <si>
-    <t>(295003) (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER (G2.4.4) EMERGENCY PROCEDURES / PLAN Ability to recognize abnormal indications for system operating parameters that are entry-level conditions for emergency and abnormal operating procedures (CFR: 41.10 / 43.2 / 45.6)</t>
-  </si>
-  <si>
-    <t>(295026EA2.02) Ability to determine and/or interpret the following as they apply to (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE: (CFR: 41.10 / 43.5 / 45.13) Suppression pool level</t>
-  </si>
-  <si>
-    <t>(295018) (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW) (G2.2.38) EQUIPMENT CONTROL Knowledge of conditions and limitations in the facility license (CFR: 41.7 / 41.10 / 43.1 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295016AA2.06) Ability to determine and/or interpret the following as they apply to (APE 16) CONTROL ROOM ABANDONMENT: (CFR: 41.10 / 43.5 / 45.13) Cooldown rate</t>
-  </si>
-  <si>
-    <t>(295024) (EPE 1) HIGH DRYWELL PRESSURE (G2.4.38) EMERGENCY PROCEDURES / PLAN Ability to take actions required by the facility emergency plan implementing procedures, including supporting or acting as emergency coordinator (CFR: 41.10 / 43.5 / 45.11)</t>
-  </si>
-  <si>
-    <t>(295021AA2.07) Ability to determine and/or interpret the following as they apply to (APE 21) LOSS OF SHUTDOWN COOLING: (CFR: 41.10 / 43.5 / 45.13) Reactor recirculation flow</t>
-  </si>
-  <si>
-    <t>(295012AA2.02) Ability to determine and/or interpret the following as they apply to (APE 12) HIGH DRYWELL TEMPERATURE: (CFR: 41.10 / 43.5 / 45.13) Drywell pressure</t>
-  </si>
-  <si>
-    <t>(295002) (APE 2) LOSS OF MAIN CONDENSER VACUUM (G2.2.1) EQUIPMENT CONTROL Ability to perform pre-startup procedures for the facility, including operating those controls associated with plant equipment that could affect reactivity (CFR: 41.5 / 41.10 / 43.5 / 43.6 / 45.1)</t>
-  </si>
-  <si>
-    <t>(295033EA2.03) Ability to determine and/or interpret the following as they apply to (EPE 10) HIGH SECONDARY CONTAINMENT AREA RADIATION LEVELS: (CFR: 41.10 / 43.5 / 45.13) Source of high area radiation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(205000A2.10) Ability to (a) predict the impacts of the following on the (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) Abnormal valve position </t>
-  </si>
-  <si>
-    <t>(262001) (SF6 AC) AC ELECTRICAL DISTRIBUTION (G2.1.46) CONDUCT OF OPERATIONS Ability to use integrated control systems to operate plant systems or components (CFR: 41.10/ 45.12 / 45.13)</t>
-  </si>
-  <si>
-    <t>(203000A2.02) Ability to (a) predict the impacts of the following on the (SF2, SF4 RHR/LPCI) RHR/LPCI: INJECTION MODE (BWR 3, 4, 5, 6) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Pump trips</t>
-  </si>
-  <si>
-    <t>(261000) (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM  (G2.4.18) EMERGENCY PROCEDURES / PLAN Knowledge of the specific bases for emergency and abnormal operating procedures (CFR: 41.10 / 43.1 / 45.13)</t>
-  </si>
-  <si>
-    <t>(209001A2.06) Ability to (a) predict the impacts of the following on the (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Inadequate system flow</t>
-  </si>
-  <si>
-    <t>(272000) (SF7, SF9 RMS) RADIATION MONITORING SYSTEM  (G2.2.21) EQUIPMENT CONTROL Knowledge of pre- and post-maintenance operability requirements (CFR: 41.10 / 43.2)</t>
-  </si>
-  <si>
-    <t>(271000A2.13) Ability to (a) predict the impacts of the following on the (SF9 OG) OFFGAS SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6 / 45.8) Recombiner low temperature</t>
-  </si>
-  <si>
-    <t>(290002) (SF4 RVI) REACTOR VESSEL INTERNALS (G2.1.35) CONDUCT OF OPERATIONS Knowledge of the fuel handling responsibilities of SROs (SRO Only) (CFR: 43.7)</t>
-  </si>
-  <si>
-    <t>(G2.1.6) CONDUCT OF OPERATIONS Ability to manage the control room crew during plant transients (SRO Only) (CFR: 43.5 / 45.12 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.1.8) CONDUCT OF OPERATIONS Ability to coordinate personnel activities outside the control room (CFR: 41.10 / 43.1 / 45.5 / 45.12 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.2.18) EQUIPMENT CONTROL Knowledge of the process for managing maintenance activities during shutdown operations, such as risk assessments and work prioritization (CFR: 41.10 / 43.5 / 45.13)</t>
+    <t>(295009AA2.02) Ability to determine and/or interpret the following as they apply to (APE 9) LOW REACTOR WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) Steam flow/feed flow mismatch</t>
+  </si>
+  <si>
+    <t>(295011) (APE 11) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY) (G2.1.17) CONDUCT OF OPERATIONS Ability to make accurate, clear, and concise verbal reports (CFR: 41.10 / 45.12 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295008AA2.01) Ability to determine and/or interpret the following as they apply to (APE 8) HIGH REACTOR WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) Reactor water level</t>
+  </si>
+  <si>
+    <t>(212000A2.19) Ability to (a) predict the impacts of the following on the (SF7 RPS) REACTOR PROTECTION SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) Partial RPS actuation</t>
+  </si>
+  <si>
+    <t>(400000) (SF8 CCS) COMPONENT COOLING WATER SYSTEM  (G2.3.11) RADIATION CONTROL Ability to control radiation releases (CFR: 41.11 / 43.4 / 45.10)</t>
+  </si>
+  <si>
+    <t>(262001A2.02) Ability to (a) predict the impacts of the following on the (SF6 AC) AC ELECTRICAL DISTRIBUTION and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loss of coolant accident</t>
+  </si>
+  <si>
+    <t>(215003) (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM (G2.1.47) CONDUCT OF OPERATIONS Ability to direct nonlicensed personnel activities inside the control room (CFR: 41.10 / 43.5 / 45.5 / 45.12 / 45.13)</t>
+  </si>
+  <si>
+    <t>(264000A2.08) Ability to (a) predict the impacts of the following on the (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Initiation of emergency generator room fire protection system</t>
+  </si>
+  <si>
+    <t>(259001) (SF2 FWS) FEEDWATER SYSTEM (G2.4.22) EMERGENCY PROCEDURES / PLAN Knowledge of the bases for prioritizing safety functions during abnormal/emergency operations (CFR: 41.7 / 41.10 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(202002A2.13) Ability to (a) predict the impacts of the following on the (SF1 RSCTL) RECIRCULATION FLOW CONTROL SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loss of loop flow signal</t>
+  </si>
+  <si>
+    <t>(233000) (SF9 FPCCU) FUEL POOL COOLING/CLEANUP (G2.4.4) EMERGENCY PROCEDURES / PLAN Ability to recognize abnormal indications for system operating parameters that are entry-level conditions for emergency and abnormal operating procedures (CFR: 41.10 / 43.2 / 45.6)</t>
+  </si>
+  <si>
+    <t>(G2.1.23) CONDUCT OF OPERATIONS Ability to perform general or normal operating procedures during any plant condition (CFR: 41.10 / 43.5 / 45.2 / 45.6)</t>
+  </si>
+  <si>
+    <t>(G2.1.4) CONDUCT OF OPERATIONS Knowledge of individual licensed operator responsibilities related to shift staffing, such as medical requirements, \u201cno-solo\u201d operation, maintenance of active license status, 10 CFR Part 55 (CFR: 41.10 / 43.2)</t>
   </si>
   <si>
     <t>(G2.2.37) EQUIPMENT CONTROL Ability to determine operability or availability of safety-related equipment (SRO Only) (CFR: 43.2 / 43.5 / 45.12)</t>
   </si>
   <si>
-    <t>(G2.3.11) RADIATION CONTROL Ability to control radiation releases (CFR: 41.11 / 43.4 / 45.10)</t>
-  </si>
-  <si>
-    <t>(G2.4.12) EMERGENCY PROCEDURES / PLAN Knowledge of operating crew responsibilities during emergency and abnormal operations (CFR: 41.10 / 45.12)</t>
-  </si>
-  <si>
-    <t>(G2.4.17) EMERGENCY PROCEDURES / PLAN Knowledge of emergency and abnormal operating procedures terms and definitions (CFR: 41.10 / 45.13)</t>
+    <t>(G2.2.45) EQUIPMENT CONTROL Ability to determine or interpret technical specifications with action statements of greater than 1 hour (SRO Only) (CFR: 43.2 / 43.5 / 45.3)</t>
+  </si>
+  <si>
+    <t>(G2.3.6) RADIATION CONTROL Ability to approve liquid or gaseous release permits (CFR: 41.13 / 43.4 / 45.10)</t>
+  </si>
+  <si>
+    <t>(G2.4.25) EMERGENCY PROCEDURES / PLAN Knowledge of fire protection procedures (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.4.20) EMERGENCY PROCEDURES / PLAN Knowledge of the operational implications of emergency and abnormal operating procedures warnings, cautions, and notes (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>K3</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>G</t>
   </si>
   <si>
     <t>A2</t>
   </si>
   <si>
-    <t>A1</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
     <t>K2</t>
   </si>
   <si>
     <t>K1</t>
   </si>
   <si>
-    <t>K3</t>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>K6</t>
+  </si>
+  <si>
+    <t>K4</t>
   </si>
   <si>
     <t>K5</t>
   </si>
   <si>
-    <t>K4</t>
-  </si>
-  <si>
-    <t>A3</t>
-  </si>
-  <si>
-    <t>K6</t>
-  </si>
-  <si>
-    <t>A4</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
@@ -385,217 +385,217 @@
     <t>T</t>
   </si>
   <si>
+    <t>295018</t>
+  </si>
+  <si>
     <t>295023</t>
   </si>
   <si>
+    <t>295006</t>
+  </si>
+  <si>
     <t>295003</t>
   </si>
   <si>
+    <t>700000</t>
+  </si>
+  <si>
+    <t>295016</t>
+  </si>
+  <si>
+    <t>295019</t>
+  </si>
+  <si>
+    <t>295031</t>
+  </si>
+  <si>
+    <t>295030</t>
+  </si>
+  <si>
+    <t>295021</t>
+  </si>
+  <si>
+    <t>295027</t>
+  </si>
+  <si>
+    <t>295001</t>
+  </si>
+  <si>
+    <t>295004</t>
+  </si>
+  <si>
+    <t>295025</t>
+  </si>
+  <si>
+    <t>295038</t>
+  </si>
+  <si>
     <t>295026</t>
   </si>
   <si>
-    <t>295018</t>
-  </si>
-  <si>
-    <t>295016</t>
-  </si>
-  <si>
     <t>295024</t>
   </si>
   <si>
-    <t>295021</t>
-  </si>
-  <si>
-    <t>295004</t>
-  </si>
-  <si>
-    <t>295027</t>
-  </si>
-  <si>
-    <t>295025</t>
-  </si>
-  <si>
-    <t>295030</t>
-  </si>
-  <si>
-    <t>700000</t>
-  </si>
-  <si>
-    <t>295001</t>
+    <t>600000</t>
+  </si>
+  <si>
+    <t>295037</t>
   </si>
   <si>
     <t>295005</t>
   </si>
   <si>
-    <t>295006</t>
-  </si>
-  <si>
-    <t>295031</t>
-  </si>
-  <si>
-    <t>295038</t>
-  </si>
-  <si>
-    <t>600000</t>
-  </si>
-  <si>
-    <t>295019</t>
-  </si>
-  <si>
-    <t>295037</t>
+    <t>295007</t>
+  </si>
+  <si>
+    <t>295022</t>
+  </si>
+  <si>
+    <t>295002</t>
+  </si>
+  <si>
+    <t>295034</t>
+  </si>
+  <si>
+    <t>295010</t>
+  </si>
+  <si>
+    <t>295017</t>
+  </si>
+  <si>
+    <t>215005</t>
+  </si>
+  <si>
+    <t>259002</t>
+  </si>
+  <si>
+    <t>223002</t>
+  </si>
+  <si>
+    <t>300000</t>
+  </si>
+  <si>
+    <t>212000</t>
+  </si>
+  <si>
+    <t>400000</t>
+  </si>
+  <si>
+    <t>262001</t>
+  </si>
+  <si>
+    <t>215003</t>
+  </si>
+  <si>
+    <t>264000</t>
+  </si>
+  <si>
+    <t>510000</t>
+  </si>
+  <si>
+    <t>209002</t>
+  </si>
+  <si>
+    <t>209001</t>
+  </si>
+  <si>
+    <t>215004</t>
+  </si>
+  <si>
+    <t>239002</t>
+  </si>
+  <si>
+    <t>263000</t>
+  </si>
+  <si>
+    <t>261000</t>
+  </si>
+  <si>
+    <t>262002</t>
+  </si>
+  <si>
+    <t>205000</t>
+  </si>
+  <si>
+    <t>218000</t>
+  </si>
+  <si>
+    <t>211000</t>
+  </si>
+  <si>
+    <t>217000</t>
+  </si>
+  <si>
+    <t>203000</t>
+  </si>
+  <si>
+    <t>226001</t>
+  </si>
+  <si>
+    <t>290002</t>
+  </si>
+  <si>
+    <t>219000</t>
+  </si>
+  <si>
+    <t>201005</t>
+  </si>
+  <si>
+    <t>239001</t>
+  </si>
+  <si>
+    <t>201003</t>
+  </si>
+  <si>
+    <t>223001</t>
+  </si>
+  <si>
+    <t>234000</t>
+  </si>
+  <si>
+    <t>202001</t>
+  </si>
+  <si>
+    <t>256000</t>
+  </si>
+  <si>
+    <t>239003</t>
+  </si>
+  <si>
+    <t>292005</t>
+  </si>
+  <si>
+    <t>292001</t>
+  </si>
+  <si>
+    <t>292002</t>
+  </si>
+  <si>
+    <t>293008</t>
+  </si>
+  <si>
+    <t>293007</t>
+  </si>
+  <si>
+    <t>293005</t>
+  </si>
+  <si>
+    <t>295009</t>
   </si>
   <si>
     <t>295011</t>
   </si>
   <si>
-    <t>295007</t>
-  </si>
-  <si>
-    <t>295013</t>
-  </si>
-  <si>
-    <t>295022</t>
-  </si>
-  <si>
     <t>295008</t>
   </si>
   <si>
-    <t>295009</t>
-  </si>
-  <si>
-    <t>212000</t>
-  </si>
-  <si>
-    <t>223002</t>
-  </si>
-  <si>
-    <t>209002</t>
-  </si>
-  <si>
-    <t>259002</t>
-  </si>
-  <si>
-    <t>205000</t>
-  </si>
-  <si>
-    <t>262001</t>
-  </si>
-  <si>
-    <t>203000</t>
-  </si>
-  <si>
-    <t>261000</t>
-  </si>
-  <si>
-    <t>209001</t>
-  </si>
-  <si>
-    <t>215003</t>
-  </si>
-  <si>
-    <t>217000</t>
-  </si>
-  <si>
-    <t>218000</t>
-  </si>
-  <si>
-    <t>262002</t>
-  </si>
-  <si>
-    <t>211000</t>
-  </si>
-  <si>
-    <t>264000</t>
-  </si>
-  <si>
-    <t>300000</t>
-  </si>
-  <si>
-    <t>215004</t>
-  </si>
-  <si>
-    <t>400000</t>
-  </si>
-  <si>
-    <t>263000</t>
-  </si>
-  <si>
-    <t>239002</t>
-  </si>
-  <si>
-    <t>510000</t>
-  </si>
-  <si>
-    <t>215005</t>
-  </si>
-  <si>
     <t>259001</t>
   </si>
   <si>
-    <t>290001</t>
-  </si>
-  <si>
-    <t>219000</t>
-  </si>
-  <si>
-    <t>216000</t>
-  </si>
-  <si>
-    <t>204000</t>
-  </si>
-  <si>
-    <t>202001</t>
-  </si>
-  <si>
-    <t>215001</t>
-  </si>
-  <si>
-    <t>223001</t>
-  </si>
-  <si>
-    <t>239001</t>
-  </si>
-  <si>
-    <t>245000</t>
-  </si>
-  <si>
-    <t>201005</t>
-  </si>
-  <si>
-    <t>292007</t>
-  </si>
-  <si>
-    <t>292005</t>
-  </si>
-  <si>
-    <t>292001</t>
-  </si>
-  <si>
-    <t>293006</t>
-  </si>
-  <si>
-    <t>293009</t>
-  </si>
-  <si>
-    <t>293004</t>
-  </si>
-  <si>
-    <t>295012</t>
-  </si>
-  <si>
-    <t>295002</t>
-  </si>
-  <si>
-    <t>295033</t>
-  </si>
-  <si>
-    <t>272000</t>
-  </si>
-  <si>
-    <t>271000</t>
-  </si>
-  <si>
-    <t>290002</t>
+    <t>202002</t>
+  </si>
+  <si>
+    <t>233000</t>
   </si>
 </sst>
 </file>
@@ -984,7 +984,7 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
       <c r="D2" t="s">
         <v>105</v>
@@ -1001,7 +1001,7 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="D3" t="s">
         <v>106</v>
@@ -1018,7 +1018,7 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>4.1</v>
+        <v>3.1</v>
       </c>
       <c r="D4" t="s">
         <v>107</v>
@@ -1035,7 +1035,7 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>3.9</v>
+        <v>4.4</v>
       </c>
       <c r="D5" t="s">
         <v>108</v>
@@ -1052,7 +1052,7 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="D6" t="s">
         <v>109</v>
@@ -1069,7 +1069,7 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="D7" t="s">
         <v>110</v>
@@ -1086,7 +1086,7 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="D8" t="s">
         <v>105</v>
@@ -1120,7 +1120,7 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <v>3.4</v>
+        <v>2.6</v>
       </c>
       <c r="D10" t="s">
         <v>107</v>
@@ -1137,7 +1137,7 @@
         <v>14</v>
       </c>
       <c r="C11">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="D11" t="s">
         <v>108</v>
@@ -1154,7 +1154,7 @@
         <v>15</v>
       </c>
       <c r="C12">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="D12" t="s">
         <v>109</v>
@@ -1171,7 +1171,7 @@
         <v>16</v>
       </c>
       <c r="C13">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="D13" t="s">
         <v>110</v>
@@ -1188,7 +1188,7 @@
         <v>17</v>
       </c>
       <c r="C14">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="D14" t="s">
         <v>105</v>
@@ -1205,7 +1205,7 @@
         <v>18</v>
       </c>
       <c r="C15">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="D15" t="s">
         <v>106</v>
@@ -1222,7 +1222,7 @@
         <v>19</v>
       </c>
       <c r="C16">
-        <v>3</v>
+        <v>4.1</v>
       </c>
       <c r="D16" t="s">
         <v>107</v>
@@ -1239,7 +1239,7 @@
         <v>20</v>
       </c>
       <c r="C17">
-        <v>4.1</v>
+        <v>3.5</v>
       </c>
       <c r="D17" t="s">
         <v>108</v>
@@ -1256,7 +1256,7 @@
         <v>21</v>
       </c>
       <c r="C18">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="D18" t="s">
         <v>109</v>
@@ -1273,7 +1273,7 @@
         <v>22</v>
       </c>
       <c r="C19">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="D19" t="s">
         <v>110</v>
@@ -1290,7 +1290,7 @@
         <v>23</v>
       </c>
       <c r="C20">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="D20" t="s">
         <v>105</v>
@@ -1307,7 +1307,7 @@
         <v>24</v>
       </c>
       <c r="C21">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="D21" t="s">
         <v>106</v>
@@ -1324,7 +1324,7 @@
         <v>25</v>
       </c>
       <c r="C22">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="D22" t="s">
         <v>108</v>
@@ -1341,7 +1341,7 @@
         <v>26</v>
       </c>
       <c r="C23">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="D23" t="s">
         <v>109</v>
@@ -1358,7 +1358,7 @@
         <v>27</v>
       </c>
       <c r="C24">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
       <c r="D24" t="s">
         <v>110</v>
@@ -1375,7 +1375,7 @@
         <v>28</v>
       </c>
       <c r="C25">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="D25" t="s">
         <v>105</v>
@@ -1392,7 +1392,7 @@
         <v>29</v>
       </c>
       <c r="C26">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="D26" t="s">
         <v>106</v>
@@ -1409,7 +1409,7 @@
         <v>30</v>
       </c>
       <c r="C27">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="D27" t="s">
         <v>107</v>
@@ -1426,7 +1426,7 @@
         <v>31</v>
       </c>
       <c r="C28">
-        <v>4.1</v>
+        <v>3.7</v>
       </c>
       <c r="D28" t="s">
         <v>111</v>
@@ -1443,10 +1443,10 @@
         <v>32</v>
       </c>
       <c r="C29">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="D29" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E29" t="s">
         <v>150</v>
@@ -1460,10 +1460,10 @@
         <v>33</v>
       </c>
       <c r="C30">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="D30" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E30" t="s">
         <v>151</v>
@@ -1477,10 +1477,10 @@
         <v>34</v>
       </c>
       <c r="C31">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="D31" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="E31" t="s">
         <v>152</v>
@@ -1494,7 +1494,7 @@
         <v>35</v>
       </c>
       <c r="C32">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="D32" t="s">
         <v>113</v>
@@ -1511,10 +1511,10 @@
         <v>36</v>
       </c>
       <c r="C33">
-        <v>3.7</v>
+        <v>2.8</v>
       </c>
       <c r="D33" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E33" t="s">
         <v>154</v>
@@ -1528,10 +1528,10 @@
         <v>37</v>
       </c>
       <c r="C34">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D34" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="E34" t="s">
         <v>155</v>
@@ -1545,10 +1545,10 @@
         <v>38</v>
       </c>
       <c r="C35">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="D35" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="E35" t="s">
         <v>156</v>
@@ -1562,10 +1562,10 @@
         <v>39</v>
       </c>
       <c r="C36">
-        <v>4.1</v>
+        <v>2.8</v>
       </c>
       <c r="D36" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E36" t="s">
         <v>157</v>
@@ -1579,7 +1579,7 @@
         <v>40</v>
       </c>
       <c r="C37">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="D37" t="s">
         <v>115</v>
@@ -1596,10 +1596,10 @@
         <v>41</v>
       </c>
       <c r="C38">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="D38" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E38" t="s">
         <v>159</v>
@@ -1613,7 +1613,7 @@
         <v>42</v>
       </c>
       <c r="C39">
-        <v>3.7</v>
+        <v>4.2</v>
       </c>
       <c r="D39" t="s">
         <v>111</v>
@@ -1630,10 +1630,10 @@
         <v>43</v>
       </c>
       <c r="C40">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="D40" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E40" t="s">
         <v>161</v>
@@ -1647,10 +1647,10 @@
         <v>44</v>
       </c>
       <c r="C41">
-        <v>3.9</v>
+        <v>4.3</v>
       </c>
       <c r="D41" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E41" t="s">
         <v>162</v>
@@ -1664,10 +1664,10 @@
         <v>45</v>
       </c>
       <c r="C42">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="D42" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E42" t="s">
         <v>163</v>
@@ -1681,7 +1681,7 @@
         <v>46</v>
       </c>
       <c r="C43">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="D43" t="s">
         <v>113</v>
@@ -1698,10 +1698,10 @@
         <v>47</v>
       </c>
       <c r="C44">
-        <v>2.6</v>
+        <v>3.3</v>
       </c>
       <c r="D44" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E44" t="s">
         <v>165</v>
@@ -1715,10 +1715,10 @@
         <v>48</v>
       </c>
       <c r="C45">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="D45" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E45" t="s">
         <v>166</v>
@@ -1732,10 +1732,10 @@
         <v>49</v>
       </c>
       <c r="C46">
-        <v>2.8</v>
+        <v>4.2</v>
       </c>
       <c r="D46" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="E46" t="s">
         <v>167</v>
@@ -1749,10 +1749,10 @@
         <v>50</v>
       </c>
       <c r="C47">
-        <v>4.3</v>
+        <v>3.9</v>
       </c>
       <c r="D47" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E47" t="s">
         <v>168</v>
@@ -1766,7 +1766,7 @@
         <v>51</v>
       </c>
       <c r="C48">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="D48" t="s">
         <v>115</v>
@@ -1783,10 +1783,10 @@
         <v>52</v>
       </c>
       <c r="C49">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="D49" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E49" t="s">
         <v>170</v>
@@ -1800,7 +1800,7 @@
         <v>53</v>
       </c>
       <c r="C50">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="D50" t="s">
         <v>111</v>
@@ -1820,7 +1820,7 @@
         <v>3.3</v>
       </c>
       <c r="D51" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E51" t="s">
         <v>150</v>
@@ -1834,10 +1834,10 @@
         <v>55</v>
       </c>
       <c r="C52">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="D52" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E52" t="s">
         <v>151</v>
@@ -1851,10 +1851,10 @@
         <v>56</v>
       </c>
       <c r="C53">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="D53" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="E53" t="s">
         <v>152</v>
@@ -1868,7 +1868,7 @@
         <v>57</v>
       </c>
       <c r="C54">
-        <v>3.9</v>
+        <v>4.3</v>
       </c>
       <c r="D54" t="s">
         <v>115</v>
@@ -1885,10 +1885,10 @@
         <v>58</v>
       </c>
       <c r="C55">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="D55" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E55" t="s">
         <v>172</v>
@@ -1902,7 +1902,7 @@
         <v>59</v>
       </c>
       <c r="C56">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="D56" t="s">
         <v>111</v>
@@ -1919,10 +1919,10 @@
         <v>60</v>
       </c>
       <c r="C57">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="D57" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E57" t="s">
         <v>174</v>
@@ -1936,10 +1936,10 @@
         <v>61</v>
       </c>
       <c r="C58">
-        <v>3</v>
+        <v>3.7</v>
       </c>
       <c r="D58" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E58" t="s">
         <v>175</v>
@@ -1953,10 +1953,10 @@
         <v>62</v>
       </c>
       <c r="C59">
-        <v>2.5</v>
+        <v>3.6</v>
       </c>
       <c r="D59" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E59" t="s">
         <v>176</v>
@@ -1970,7 +1970,7 @@
         <v>63</v>
       </c>
       <c r="C60">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="D60" t="s">
         <v>113</v>
@@ -1987,10 +1987,10 @@
         <v>64</v>
       </c>
       <c r="C61">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="D61" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E61" t="s">
         <v>178</v>
@@ -2004,10 +2004,10 @@
         <v>65</v>
       </c>
       <c r="C62">
-        <v>4</v>
+        <v>2.7</v>
       </c>
       <c r="D62" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="E62" t="s">
         <v>179</v>
@@ -2021,10 +2021,10 @@
         <v>66</v>
       </c>
       <c r="C63">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="D63" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="E63" t="s">
         <v>180</v>
@@ -2038,10 +2038,10 @@
         <v>67</v>
       </c>
       <c r="C64">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="D64" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E64" t="s">
         <v>181</v>
@@ -2055,7 +2055,7 @@
         <v>68</v>
       </c>
       <c r="C65">
-        <v>3.9</v>
+        <v>2.9</v>
       </c>
       <c r="D65" t="s">
         <v>117</v>
@@ -2072,7 +2072,7 @@
         <v>69</v>
       </c>
       <c r="C66">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="D66" t="s">
         <v>117</v>
@@ -2089,7 +2089,7 @@
         <v>70</v>
       </c>
       <c r="C67">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="D67" t="s">
         <v>118</v>
@@ -2106,7 +2106,7 @@
         <v>71</v>
       </c>
       <c r="C68">
-        <v>3.9</v>
+        <v>2.6</v>
       </c>
       <c r="D68" t="s">
         <v>118</v>
@@ -2123,7 +2123,7 @@
         <v>72</v>
       </c>
       <c r="C69">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="D69" t="s">
         <v>119</v>
@@ -2140,7 +2140,7 @@
         <v>73</v>
       </c>
       <c r="C70">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="D70" t="s">
         <v>120</v>
@@ -2157,7 +2157,7 @@
         <v>74</v>
       </c>
       <c r="C71">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="D71" t="s">
         <v>121</v>
@@ -2174,7 +2174,7 @@
         <v>75</v>
       </c>
       <c r="C72">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="D72" t="s">
         <v>121</v>
@@ -2191,7 +2191,7 @@
         <v>76</v>
       </c>
       <c r="C73">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="D73" t="s">
         <v>121</v>
@@ -2208,7 +2208,7 @@
         <v>77</v>
       </c>
       <c r="C74">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="D74" t="s">
         <v>122</v>
@@ -2225,7 +2225,7 @@
         <v>78</v>
       </c>
       <c r="C75">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="D75" t="s">
         <v>122</v>
@@ -2242,7 +2242,7 @@
         <v>79</v>
       </c>
       <c r="C76">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="D76" t="s">
         <v>122</v>
@@ -2259,10 +2259,10 @@
         <v>80</v>
       </c>
       <c r="C77">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="D77" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E77" t="s">
         <v>123</v>
@@ -2276,7 +2276,7 @@
         <v>81</v>
       </c>
       <c r="C78">
-        <v>4.7</v>
+        <v>4</v>
       </c>
       <c r="D78" t="s">
         <v>107</v>
@@ -2293,10 +2293,10 @@
         <v>82</v>
       </c>
       <c r="C79">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="D79" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E79" t="s">
         <v>125</v>
@@ -2310,7 +2310,7 @@
         <v>83</v>
       </c>
       <c r="C80">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="D80" t="s">
         <v>107</v>
@@ -2327,10 +2327,10 @@
         <v>84</v>
       </c>
       <c r="C81">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="D81" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E81" t="s">
         <v>127</v>
@@ -2361,10 +2361,10 @@
         <v>86</v>
       </c>
       <c r="C83">
-        <v>3.2</v>
+        <v>3.9</v>
       </c>
       <c r="D83" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E83" t="s">
         <v>129</v>
@@ -2378,10 +2378,10 @@
         <v>87</v>
       </c>
       <c r="C84">
-        <v>4.3</v>
+        <v>3.8</v>
       </c>
       <c r="D84" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E84" t="s">
         <v>188</v>
@@ -2395,7 +2395,7 @@
         <v>88</v>
       </c>
       <c r="C85">
-        <v>4.4</v>
+        <v>4</v>
       </c>
       <c r="D85" t="s">
         <v>107</v>
@@ -2412,10 +2412,10 @@
         <v>89</v>
       </c>
       <c r="C86">
-        <v>3.8</v>
+        <v>4.4</v>
       </c>
       <c r="D86" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E86" t="s">
         <v>190</v>
@@ -2429,10 +2429,10 @@
         <v>90</v>
       </c>
       <c r="C87">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="D87" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E87" t="s">
         <v>153</v>
@@ -2446,7 +2446,7 @@
         <v>91</v>
       </c>
       <c r="C88">
-        <v>3.3</v>
+        <v>4.3</v>
       </c>
       <c r="D88" t="s">
         <v>107</v>
@@ -2463,10 +2463,10 @@
         <v>92</v>
       </c>
       <c r="C89">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="D89" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E89" t="s">
         <v>155</v>
@@ -2480,7 +2480,7 @@
         <v>93</v>
       </c>
       <c r="C90">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="D90" t="s">
         <v>107</v>
@@ -2497,10 +2497,10 @@
         <v>94</v>
       </c>
       <c r="C91">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="D91" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E91" t="s">
         <v>157</v>
@@ -2514,7 +2514,7 @@
         <v>95</v>
       </c>
       <c r="C92">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="D92" t="s">
         <v>107</v>
@@ -2531,10 +2531,10 @@
         <v>96</v>
       </c>
       <c r="C93">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="D93" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E93" t="s">
         <v>192</v>
@@ -2548,7 +2548,7 @@
         <v>97</v>
       </c>
       <c r="C94">
-        <v>3.9</v>
+        <v>4.7</v>
       </c>
       <c r="D94" t="s">
         <v>107</v>
@@ -2565,7 +2565,7 @@
         <v>98</v>
       </c>
       <c r="C95">
-        <v>4.8</v>
+        <v>4.4</v>
       </c>
       <c r="D95" t="s">
         <v>117</v>
@@ -2582,7 +2582,7 @@
         <v>99</v>
       </c>
       <c r="C96">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="D96" t="s">
         <v>117</v>
@@ -2599,7 +2599,7 @@
         <v>100</v>
       </c>
       <c r="C97">
-        <v>3.9</v>
+        <v>4.6</v>
       </c>
       <c r="D97" t="s">
         <v>118</v>
@@ -2616,7 +2616,7 @@
         <v>101</v>
       </c>
       <c r="C98">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="D98" t="s">
         <v>118</v>
@@ -2633,7 +2633,7 @@
         <v>102</v>
       </c>
       <c r="C99">
-        <v>4.3</v>
+        <v>3.8</v>
       </c>
       <c r="D99" t="s">
         <v>119</v>
@@ -2650,7 +2650,7 @@
         <v>103</v>
       </c>
       <c r="C100">
-        <v>4.3</v>
+        <v>3.7</v>
       </c>
       <c r="D100" t="s">
         <v>120</v>
